--- a/src/(제이원테크)경비집계표_2023년_v1.1.xlsx
+++ b/src/(제이원테크)경비집계표_2023년_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Workspace\JONE\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0AB44E-1880-4288-ACF5-A44B6FC59741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD70F800-518C-4407-922F-1F6B8BD9427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="15890" windowWidth="25820" windowHeight="15500" tabRatio="867" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="15890" windowWidth="25820" windowHeight="15500" tabRatio="867" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XXXXXX" sheetId="1" state="hidden" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="70">
   <si>
     <t>차량유지비 : 주유비, 주차비 등</t>
   </si>
@@ -1538,6 +1538,7 @@
     <xf numFmtId="182" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1552,22 +1553,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1626,6 +1611,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="181" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1655,7 +1656,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -2455,18 +2455,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A15&amp;")"</f>
         <v>경비관리표(8월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -2474,14 +2474,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -2504,7 +2504,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -2604,13 +2604,13 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="80">
         <f>VLOOKUP($C8,'0007'!$C$3:$G$11,5,0)</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="E8" s="80">
         <f t="shared" si="0"/>
@@ -2618,18 +2618,18 @@
       </c>
       <c r="F8" s="80">
         <f>'0007'!F8+E8</f>
-        <v>495000</v>
+        <v>550000</v>
       </c>
       <c r="G8" s="89">
         <f t="shared" ref="G8" si="2">D8-E8</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="79">
         <f>SUM(D4:D10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="E11" s="79">
         <f>SUM(E4:E10)</f>
@@ -2693,11 +2693,11 @@
       </c>
       <c r="F11" s="79">
         <f>SUM(F4:F10)</f>
-        <v>2449600</v>
+        <v>2504600</v>
       </c>
       <c r="G11" s="79">
         <f>SUM(G4:G10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
@@ -2718,11 +2718,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -2739,9 +2739,9 @@
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="75"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="75"/>
       <c r="H14" s="73">
         <f>G14</f>
@@ -2755,9 +2755,9 @@
       </c>
       <c r="B15" s="107"/>
       <c r="C15" s="75"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="75"/>
       <c r="H15" s="73">
         <f>H14+G15</f>
@@ -2771,9 +2771,9 @@
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="75"/>
       <c r="H16" s="73">
         <f t="shared" ref="H16:H32" si="3">H15+G16</f>
@@ -2787,9 +2787,9 @@
       </c>
       <c r="B17" s="97"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="75"/>
       <c r="H17" s="73">
         <f t="shared" si="3"/>
@@ -2803,9 +2803,9 @@
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="75"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="75"/>
       <c r="H18" s="73">
         <f t="shared" si="3"/>
@@ -2819,9 +2819,9 @@
       </c>
       <c r="B19" s="97"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="75"/>
       <c r="H19" s="73">
         <f t="shared" si="3"/>
@@ -2835,9 +2835,9 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31">
         <f t="shared" si="3"/>
@@ -2851,9 +2851,9 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31">
         <f t="shared" si="3"/>
@@ -2867,9 +2867,9 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31">
         <f t="shared" si="3"/>
@@ -2883,9 +2883,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31">
         <f t="shared" si="3"/>
@@ -2899,9 +2899,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31">
         <f t="shared" si="3"/>
@@ -2915,9 +2915,9 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31">
         <f t="shared" si="3"/>
@@ -2931,9 +2931,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="30"/>
       <c r="H26" s="31">
         <f t="shared" si="3"/>
@@ -2947,9 +2947,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31">
         <f t="shared" si="3"/>
@@ -2963,9 +2963,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="30"/>
       <c r="H28" s="31">
         <f t="shared" si="3"/>
@@ -2979,9 +2979,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="30"/>
       <c r="H29" s="31">
         <f t="shared" si="3"/>
@@ -2995,9 +2995,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
@@ -3011,9 +3011,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="30"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
@@ -3027,9 +3027,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -3043,9 +3043,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" ref="H33:H43" si="4">H32+G33</f>
@@ -3059,9 +3059,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="4"/>
@@ -3075,9 +3075,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="30"/>
       <c r="H35" s="31">
         <f t="shared" si="4"/>
@@ -3091,9 +3091,9 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31">
         <f t="shared" si="4"/>
@@ -3107,9 +3107,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31">
         <f t="shared" si="4"/>
@@ -3123,9 +3123,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="30"/>
       <c r="H38" s="31">
         <f t="shared" si="4"/>
@@ -3139,9 +3139,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31">
         <f t="shared" si="4"/>
@@ -3155,9 +3155,9 @@
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="4"/>
@@ -3171,9 +3171,9 @@
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="4"/>
@@ -3187,9 +3187,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="4"/>
@@ -3203,9 +3203,9 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="4"/>
@@ -3214,14 +3214,14 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>0</v>
@@ -3239,10 +3239,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -3412,11 +3412,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
@@ -3433,21 +3443,11 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -3489,18 +3489,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A16&amp;")"</f>
         <v>경비관리표(9월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
       <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,15 +3509,15 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
       <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -3540,7 +3540,7 @@
     </row>
     <row r="4" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="5" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="6" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="7" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="8" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="80">
         <f>VLOOKUP($C8,'0008'!$C$3:$G$11,5,0)</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="E8" s="80">
         <f t="shared" si="0"/>
@@ -3654,18 +3654,18 @@
       </c>
       <c r="F8" s="80">
         <f>'0008'!F8+E8</f>
-        <v>495000</v>
+        <v>550000</v>
       </c>
       <c r="G8" s="89">
         <f t="shared" ref="G8" si="2">D8-E8</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="10" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -3715,13 +3715,13 @@
     </row>
     <row r="11" spans="1:11" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="79">
         <f>SUM(D4:D10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="E11" s="79">
         <f>SUM(E4:E10)</f>
@@ -3729,11 +3729,11 @@
       </c>
       <c r="F11" s="79">
         <f>SUM(F4:F10)</f>
-        <v>2449600</v>
+        <v>2504600</v>
       </c>
       <c r="G11" s="79">
         <f>SUM(G4:G10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
@@ -3754,11 +3754,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -3775,9 +3775,9 @@
       </c>
       <c r="B14" s="97"/>
       <c r="C14" s="75"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="75"/>
       <c r="H14" s="73">
         <f>G14</f>
@@ -3791,9 +3791,9 @@
       </c>
       <c r="B15" s="97"/>
       <c r="C15" s="75"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="105"/>
       <c r="H15" s="73">
         <f>H14+G15</f>
@@ -3807,9 +3807,9 @@
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="75"/>
       <c r="H16" s="73">
         <f t="shared" ref="H16:H17" si="3">H15+G16</f>
@@ -3823,9 +3823,9 @@
       </c>
       <c r="B17" s="97"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="75"/>
       <c r="H17" s="73">
         <f t="shared" si="3"/>
@@ -3839,9 +3839,9 @@
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="75"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="105"/>
       <c r="H18" s="73">
         <f>H17+G18</f>
@@ -3855,9 +3855,9 @@
       </c>
       <c r="B19" s="97"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="75"/>
       <c r="H19" s="73">
         <f t="shared" ref="H19:H36" si="4">H18+G19</f>
@@ -3887,9 +3887,9 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="34"/>
       <c r="H21" s="31">
         <f t="shared" si="4"/>
@@ -3903,9 +3903,9 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="34"/>
       <c r="H22" s="31">
         <f t="shared" si="4"/>
@@ -3919,9 +3919,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="34"/>
       <c r="H23" s="31">
         <f t="shared" si="4"/>
@@ -3935,9 +3935,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="34"/>
       <c r="H24" s="31">
         <f t="shared" si="4"/>
@@ -3953,9 +3953,9 @@
         <v>51</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="34"/>
       <c r="H25" s="31">
         <f t="shared" si="4"/>
@@ -3969,9 +3969,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="34"/>
       <c r="H26" s="31">
         <f t="shared" si="4"/>
@@ -3985,9 +3985,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="34"/>
       <c r="H27" s="31">
         <f t="shared" si="4"/>
@@ -4001,9 +4001,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="34"/>
       <c r="H28" s="31">
         <f t="shared" si="4"/>
@@ -4017,9 +4017,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="34"/>
       <c r="H29" s="31">
         <f t="shared" si="4"/>
@@ -4033,9 +4033,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="34"/>
       <c r="H30" s="31">
         <f t="shared" si="4"/>
@@ -4049,9 +4049,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="34"/>
       <c r="H31" s="31">
         <f t="shared" si="4"/>
@@ -4065,9 +4065,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="34"/>
       <c r="H32" s="31">
         <f t="shared" si="4"/>
@@ -4081,9 +4081,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="34"/>
       <c r="H33" s="31">
         <f t="shared" si="4"/>
@@ -4097,9 +4097,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="34"/>
       <c r="H34" s="31">
         <f t="shared" si="4"/>
@@ -4113,9 +4113,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="34"/>
       <c r="H35" s="31">
         <f t="shared" si="4"/>
@@ -4129,9 +4129,9 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="34"/>
       <c r="H36" s="31">
         <f t="shared" si="4"/>
@@ -4145,9 +4145,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="34"/>
       <c r="H37" s="31">
         <f t="shared" ref="H37:H43" si="5">H36+G37</f>
@@ -4161,9 +4161,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="34"/>
       <c r="H38" s="31">
         <f t="shared" si="5"/>
@@ -4177,9 +4177,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="34"/>
       <c r="H39" s="31">
         <f t="shared" si="5"/>
@@ -4193,9 +4193,9 @@
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="34"/>
       <c r="H40" s="31">
         <f t="shared" si="5"/>
@@ -4209,9 +4209,9 @@
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="70"/>
       <c r="H41" s="31">
         <f t="shared" si="5"/>
@@ -4225,9 +4225,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="34"/>
       <c r="H42" s="31">
         <f t="shared" si="5"/>
@@ -4241,9 +4241,9 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="34"/>
       <c r="H43" s="31">
         <f t="shared" si="5"/>
@@ -4252,14 +4252,14 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>0</v>
@@ -4277,10 +4277,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -4313,7 +4313,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="18">
-        <f>SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
+        <f t="shared" ref="I47:I52" si="6">SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
         <v>0</v>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
         <v>61</v>
       </c>
       <c r="I48" s="18">
-        <f>SUMIF($I$13:$I$44,H48,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="18">
-        <f>SUMIF($I$13:$I$44,H49,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="18">
-        <f>SUMIF($I$13:$I$44,H50,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="18">
-        <f>SUMIF($I$13:$I$44,H51,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="18">
-        <f>SUMIF($I$13:$I$44,H52,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4450,6 +4450,31 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -4460,31 +4485,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -4524,18 +4524,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A17&amp;")"</f>
         <v>경비관리표(10월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -4543,14 +4543,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -4573,7 +4573,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -4673,13 +4673,13 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="80">
         <f>VLOOKUP($C8,'0009'!$C$3:$G$11,5,0)</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="E8" s="80">
         <f t="shared" si="0"/>
@@ -4687,18 +4687,18 @@
       </c>
       <c r="F8" s="80">
         <f>'0009'!F8+E8</f>
-        <v>495000</v>
+        <v>550000</v>
       </c>
       <c r="G8" s="89">
         <f t="shared" ref="G8" si="2">D8-E8</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -4748,13 +4748,13 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="79">
         <f>SUM(D4:D10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="E11" s="79">
         <f>SUM(E4:E10)</f>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="F11" s="79">
         <f>SUM(F4:F10)</f>
-        <v>2449600</v>
+        <v>2504600</v>
       </c>
       <c r="G11" s="79">
         <f>SUM(G4:G10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
@@ -4787,11 +4787,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -4808,9 +4808,9 @@
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="75"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="75"/>
       <c r="H14" s="73">
         <f>G14</f>
@@ -4824,9 +4824,9 @@
       </c>
       <c r="B15" s="107"/>
       <c r="C15" s="75"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="75"/>
       <c r="H15" s="73">
         <f>H14+G15</f>
@@ -4840,9 +4840,9 @@
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="104"/>
       <c r="H16" s="73">
         <f t="shared" ref="H16:H43" si="3">H15+G16</f>
@@ -4856,9 +4856,9 @@
       </c>
       <c r="B17" s="107"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="75"/>
       <c r="H17" s="73">
         <f t="shared" si="3"/>
@@ -4872,9 +4872,9 @@
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="70"/>
       <c r="H18" s="31">
         <f t="shared" si="3"/>
@@ -4888,9 +4888,9 @@
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31">
         <f t="shared" si="3"/>
@@ -4904,9 +4904,9 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31">
         <f t="shared" si="3"/>
@@ -4920,9 +4920,9 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31">
         <f t="shared" si="3"/>
@@ -4936,9 +4936,9 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31">
         <f t="shared" si="3"/>
@@ -4952,9 +4952,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31">
         <f t="shared" si="3"/>
@@ -4968,9 +4968,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31">
         <f t="shared" si="3"/>
@@ -4984,9 +4984,9 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31">
         <f t="shared" si="3"/>
@@ -5000,9 +5000,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="30"/>
       <c r="H26" s="31">
         <f t="shared" si="3"/>
@@ -5016,9 +5016,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31">
         <f t="shared" si="3"/>
@@ -5032,9 +5032,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="30"/>
       <c r="H28" s="31">
         <f t="shared" si="3"/>
@@ -5048,9 +5048,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="30"/>
       <c r="H29" s="31">
         <f t="shared" si="3"/>
@@ -5064,9 +5064,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
@@ -5080,9 +5080,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="30"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
@@ -5096,9 +5096,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -5112,9 +5112,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
@@ -5128,9 +5128,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
@@ -5144,9 +5144,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="30"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
@@ -5160,9 +5160,9 @@
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
@@ -5176,9 +5176,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="34"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
@@ -5192,9 +5192,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="34"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
@@ -5208,9 +5208,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
@@ -5224,9 +5224,9 @@
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
@@ -5240,9 +5240,9 @@
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
@@ -5256,9 +5256,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
@@ -5272,9 +5272,9 @@
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
@@ -5283,14 +5283,14 @@
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>0</v>
@@ -5308,10 +5308,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -5481,21 +5481,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
@@ -5512,11 +5502,21 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -5557,18 +5557,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A18&amp;")"</f>
         <v>경비관리표(11월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -5576,14 +5576,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -5606,7 +5606,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -5706,13 +5706,13 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="80">
         <f>VLOOKUP($C8,'0010'!$C$3:$G$11,5,0)</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="E8" s="80">
         <f t="shared" si="0"/>
@@ -5720,18 +5720,18 @@
       </c>
       <c r="F8" s="80">
         <f>'0010'!F8+E8</f>
-        <v>495000</v>
+        <v>550000</v>
       </c>
       <c r="G8" s="89">
         <f t="shared" ref="G8" si="2">D8-E8</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -5781,13 +5781,13 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="79">
         <f>SUM(D4:D10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="E11" s="79">
         <f>SUM(E4:E10)</f>
@@ -5795,11 +5795,11 @@
       </c>
       <c r="F11" s="79">
         <f>SUM(F4:F10)</f>
-        <v>2449600</v>
+        <v>2504600</v>
       </c>
       <c r="G11" s="79">
         <f>SUM(G4:G10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
@@ -5820,11 +5820,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -5841,9 +5841,9 @@
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="75"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="75"/>
       <c r="H14" s="73">
         <f>G14</f>
@@ -5857,9 +5857,9 @@
       </c>
       <c r="B15" s="107"/>
       <c r="C15" s="75"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="75"/>
       <c r="H15" s="73">
         <f>H14+G15</f>
@@ -5873,9 +5873,9 @@
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="75"/>
       <c r="H16" s="73">
         <f t="shared" ref="H16:H43" si="3">H15+G16</f>
@@ -5889,9 +5889,9 @@
       </c>
       <c r="B17" s="97"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="75"/>
       <c r="H17" s="73">
         <f t="shared" si="3"/>
@@ -5905,9 +5905,9 @@
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="75"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="75"/>
       <c r="H18" s="73">
         <f t="shared" si="3"/>
@@ -5921,9 +5921,9 @@
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31">
         <f t="shared" si="3"/>
@@ -5937,9 +5937,9 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31">
         <f t="shared" si="3"/>
@@ -5953,9 +5953,9 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31">
         <f t="shared" si="3"/>
@@ -5969,9 +5969,9 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31">
         <f t="shared" si="3"/>
@@ -5985,9 +5985,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31">
         <f t="shared" si="3"/>
@@ -6001,9 +6001,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31">
         <f t="shared" si="3"/>
@@ -6017,9 +6017,9 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31">
         <f t="shared" si="3"/>
@@ -6033,9 +6033,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="30"/>
       <c r="H26" s="31">
         <f t="shared" si="3"/>
@@ -6049,9 +6049,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31">
         <f t="shared" si="3"/>
@@ -6065,9 +6065,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="30"/>
       <c r="H28" s="31">
         <f t="shared" si="3"/>
@@ -6081,9 +6081,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="30"/>
       <c r="H29" s="31">
         <f t="shared" si="3"/>
@@ -6097,9 +6097,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
@@ -6113,9 +6113,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="30"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
@@ -6129,9 +6129,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -6145,9 +6145,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
@@ -6161,9 +6161,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
@@ -6177,9 +6177,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="30"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
@@ -6193,9 +6193,9 @@
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
@@ -6209,9 +6209,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="34"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
@@ -6225,9 +6225,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="34"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
@@ -6241,9 +6241,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
@@ -6257,9 +6257,9 @@
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
@@ -6273,9 +6273,9 @@
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
@@ -6289,9 +6289,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
@@ -6305,9 +6305,9 @@
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
@@ -6316,14 +6316,14 @@
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>0</v>
@@ -6341,10 +6341,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -6515,28 +6515,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="D43:F43"/>
@@ -6551,6 +6529,28 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -6591,18 +6591,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A19&amp;")"</f>
         <v>경비관리표(12월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -6610,14 +6610,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -6640,7 +6640,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -6740,13 +6740,13 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="80">
         <f>VLOOKUP($C8,'0011'!$C$3:$G$11,5,0)</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="E8" s="80">
         <f t="shared" si="0"/>
@@ -6754,18 +6754,18 @@
       </c>
       <c r="F8" s="80">
         <f>'0011'!F8+E8</f>
-        <v>495000</v>
+        <v>550000</v>
       </c>
       <c r="G8" s="89">
         <f t="shared" ref="G8" si="2">D8-E8</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -6815,13 +6815,13 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="79">
         <f>SUM(D4:D10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="E11" s="79">
         <f>SUM(E4:E10)</f>
@@ -6829,11 +6829,11 @@
       </c>
       <c r="F11" s="79">
         <f>SUM(F4:F10)</f>
-        <v>2449600</v>
+        <v>2504600</v>
       </c>
       <c r="G11" s="79">
         <f>SUM(G4:G10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
@@ -6854,11 +6854,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -6875,9 +6875,9 @@
       </c>
       <c r="B14" s="97"/>
       <c r="C14" s="75"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="155"/>
       <c r="G14" s="75"/>
       <c r="H14" s="73">
         <f>G14</f>
@@ -6891,9 +6891,9 @@
       </c>
       <c r="B15" s="97"/>
       <c r="C15" s="75"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="75"/>
       <c r="H15" s="73">
         <f>H14+G15</f>
@@ -6907,9 +6907,9 @@
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="75"/>
       <c r="H16" s="73">
         <f t="shared" ref="H16:H43" si="3">H15+G16</f>
@@ -6923,9 +6923,9 @@
       </c>
       <c r="B17" s="97"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="75"/>
       <c r="H17" s="73">
         <f t="shared" si="3"/>
@@ -6939,9 +6939,9 @@
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="75"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="75"/>
       <c r="H18" s="73">
         <f t="shared" si="3"/>
@@ -6955,9 +6955,9 @@
       </c>
       <c r="B19" s="97"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="75"/>
       <c r="H19" s="73">
         <f t="shared" si="3"/>
@@ -6971,9 +6971,9 @@
       </c>
       <c r="B20" s="97"/>
       <c r="C20" s="75"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="75"/>
       <c r="H20" s="73">
         <f t="shared" si="3"/>
@@ -6987,9 +6987,9 @@
       </c>
       <c r="B21" s="97"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="75"/>
       <c r="H21" s="73">
         <f t="shared" si="3"/>
@@ -7003,9 +7003,9 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31">
         <f t="shared" si="3"/>
@@ -7019,9 +7019,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31">
         <f t="shared" si="3"/>
@@ -7035,9 +7035,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31">
         <f t="shared" si="3"/>
@@ -7051,9 +7051,9 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31">
         <f t="shared" si="3"/>
@@ -7067,9 +7067,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="30"/>
       <c r="H26" s="31">
         <f t="shared" si="3"/>
@@ -7083,9 +7083,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31">
         <f t="shared" si="3"/>
@@ -7099,9 +7099,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="30"/>
       <c r="H28" s="31">
         <f t="shared" si="3"/>
@@ -7115,9 +7115,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="30"/>
       <c r="H29" s="31">
         <f t="shared" si="3"/>
@@ -7131,9 +7131,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
@@ -7147,9 +7147,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="30"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
@@ -7163,9 +7163,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -7179,9 +7179,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
@@ -7195,9 +7195,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
@@ -7211,9 +7211,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="30"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
@@ -7227,9 +7227,9 @@
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
@@ -7243,9 +7243,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
@@ -7259,9 +7259,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="30"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
@@ -7275,9 +7275,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
@@ -7291,9 +7291,9 @@
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
@@ -7307,9 +7307,9 @@
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
@@ -7323,9 +7323,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
@@ -7339,9 +7339,9 @@
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
@@ -7350,14 +7350,14 @@
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>0</v>
@@ -7375,10 +7375,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -7469,7 +7469,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J50" s="155"/>
+      <c r="J50" s="121"/>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
@@ -7550,28 +7550,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="D43:F43"/>
@@ -7586,6 +7564,28 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7625,17 +7625,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82"/>
@@ -7644,20 +7644,20 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
     </row>
     <row r="4" spans="1:13" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="56" t="s">
         <v>15</v>
       </c>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="F6" s="54">
         <f t="shared" si="1"/>
-        <v>495000</v>
+        <v>550000</v>
       </c>
       <c r="G6" s="54">
         <f t="shared" si="1"/>
@@ -7748,7 +7748,7 @@
       </c>
       <c r="I6" s="58">
         <f t="shared" si="0"/>
-        <v>2449600</v>
+        <v>2504600</v>
       </c>
       <c r="J6" s="72"/>
     </row>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="F7" s="65">
         <f t="shared" si="2"/>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="G7" s="65">
         <f t="shared" si="2"/>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="I7" s="66">
         <f t="shared" si="0"/>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="J7" s="72"/>
     </row>
@@ -8038,7 +8038,7 @@
       </c>
       <c r="F14" s="54">
         <f>VLOOKUP(F$4,'0007'!$C$3:$G$11,3,0)</f>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="G14" s="54">
         <f>VLOOKUP(G$4,'0007'!$C$3:$G$11,3,0)</f>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="I14" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -8257,7 +8257,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:H51"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8273,18 +8273,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A8&amp;")"</f>
         <v>경비관리표(1월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -8292,14 +8292,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -8322,7 +8322,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
@@ -8536,11 +8536,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -8561,11 +8561,11 @@
       <c r="C14" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="75">
         <v>55000</v>
       </c>
@@ -8583,9 +8583,9 @@
       </c>
       <c r="B15" s="107"/>
       <c r="C15" s="106"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="75"/>
       <c r="H15" s="73">
         <f>H14+G15</f>
@@ -8599,9 +8599,9 @@
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="75"/>
       <c r="H16" s="73">
         <f t="shared" ref="H16:H43" si="5">H15+G16</f>
@@ -8615,9 +8615,9 @@
       </c>
       <c r="B17" s="107"/>
       <c r="C17" s="106"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="75"/>
       <c r="H17" s="73">
         <f t="shared" si="5"/>
@@ -8631,9 +8631,9 @@
       </c>
       <c r="B18" s="107"/>
       <c r="C18" s="106"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="75"/>
       <c r="H18" s="73">
         <f t="shared" si="5"/>
@@ -8647,9 +8647,9 @@
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="75"/>
       <c r="H19" s="73">
         <f t="shared" si="5"/>
@@ -8663,9 +8663,9 @@
       </c>
       <c r="B20" s="107"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="75"/>
       <c r="H20" s="73">
         <f t="shared" si="5"/>
@@ -8679,9 +8679,9 @@
       </c>
       <c r="B21" s="107"/>
       <c r="C21" s="106"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="75"/>
       <c r="H21" s="73">
         <f t="shared" si="5"/>
@@ -8695,9 +8695,9 @@
       </c>
       <c r="B22" s="107"/>
       <c r="C22" s="106"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="75"/>
       <c r="H22" s="73">
         <f t="shared" si="5"/>
@@ -8711,9 +8711,9 @@
       </c>
       <c r="B23" s="107"/>
       <c r="C23" s="106"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
       <c r="G23" s="75"/>
       <c r="H23" s="73">
         <f t="shared" si="5"/>
@@ -8727,9 +8727,9 @@
       </c>
       <c r="B24" s="107"/>
       <c r="C24" s="106"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
       <c r="G24" s="75"/>
       <c r="H24" s="73">
         <f t="shared" si="5"/>
@@ -8743,9 +8743,9 @@
       </c>
       <c r="B25" s="107"/>
       <c r="C25" s="106"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
       <c r="G25" s="75"/>
       <c r="H25" s="73">
         <f t="shared" si="5"/>
@@ -8759,9 +8759,9 @@
       </c>
       <c r="B26" s="107"/>
       <c r="C26" s="106"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
       <c r="G26" s="75"/>
       <c r="H26" s="73">
         <f t="shared" si="5"/>
@@ -8775,9 +8775,9 @@
       </c>
       <c r="B27" s="107"/>
       <c r="C27" s="106"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
       <c r="G27" s="75"/>
       <c r="H27" s="73">
         <f t="shared" si="5"/>
@@ -8791,9 +8791,9 @@
       </c>
       <c r="B28" s="107"/>
       <c r="C28" s="106"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146"/>
       <c r="G28" s="75"/>
       <c r="H28" s="73">
         <f t="shared" si="5"/>
@@ -8807,9 +8807,9 @@
       </c>
       <c r="B29" s="97"/>
       <c r="C29" s="106"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
       <c r="G29" s="75"/>
       <c r="H29" s="73">
         <f t="shared" si="5"/>
@@ -8823,9 +8823,9 @@
       </c>
       <c r="B30" s="97"/>
       <c r="C30" s="106"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="129"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
       <c r="G30" s="75"/>
       <c r="H30" s="73">
         <f t="shared" si="5"/>
@@ -8839,9 +8839,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="30"/>
       <c r="H31" s="31">
         <f t="shared" si="5"/>
@@ -8855,9 +8855,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="5"/>
@@ -8871,9 +8871,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="5"/>
@@ -8887,9 +8887,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="5"/>
@@ -8903,9 +8903,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="30"/>
       <c r="H35" s="31">
         <f t="shared" si="5"/>
@@ -8919,9 +8919,9 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31">
         <f t="shared" si="5"/>
@@ -8935,9 +8935,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="34"/>
       <c r="H37" s="31">
         <f t="shared" si="5"/>
@@ -8951,9 +8951,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="34"/>
       <c r="H38" s="31">
         <f t="shared" si="5"/>
@@ -8967,9 +8967,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31">
         <f t="shared" si="5"/>
@@ -8983,9 +8983,9 @@
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="5"/>
@@ -8999,9 +8999,9 @@
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="5"/>
@@ -9015,9 +9015,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="5"/>
@@ -9031,9 +9031,9 @@
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="5"/>
@@ -9042,14 +9042,14 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>55000</v>
@@ -9067,10 +9067,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -9103,7 +9103,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="18">
-        <f>SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
+        <f t="shared" ref="I47:I52" si="6">SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
         <v>0</v>
       </c>
     </row>
@@ -9121,7 +9121,7 @@
         <v>61</v>
       </c>
       <c r="I48" s="18">
-        <f>SUMIF($I$13:$I$44,H48,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="18">
-        <f>SUMIF($I$13:$I$44,H49,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="18">
-        <f>SUMIF($I$13:$I$44,H50,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9175,7 +9175,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="18">
-        <f>SUMIF($I$13:$I$44,H51,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="18">
-        <f>SUMIF($I$13:$I$44,H52,$G$13:$G$44)</f>
+        <f t="shared" si="6"/>
         <v>55000</v>
       </c>
     </row>
@@ -9239,6 +9239,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
@@ -9255,26 +9275,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -9315,18 +9315,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="147" t="str">
+      <c r="A1" s="148" t="str">
         <f>"경비관리표("&amp;경비총괄!A9&amp;")"</f>
         <v>경비관리표(2월)</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
@@ -9336,14 +9336,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -9366,7 +9366,7 @@
     </row>
     <row r="4" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="5" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="6" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -9441,7 +9441,7 @@
     </row>
     <row r="7" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="9" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="10" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="11" spans="1:15" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
@@ -9580,11 +9580,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -9610,11 +9610,11 @@
       <c r="C14" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="75">
         <v>112000</v>
       </c>
@@ -9641,11 +9641,11 @@
       <c r="C15" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="127" t="s">
+      <c r="D15" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="75">
         <v>100000</v>
       </c>
@@ -9668,9 +9668,9 @@
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="75"/>
       <c r="H16" s="73">
         <f t="shared" ref="H16:H43" si="3">H15+G16</f>
@@ -9689,9 +9689,9 @@
       </c>
       <c r="B17" s="107"/>
       <c r="C17" s="106"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="75"/>
       <c r="H17" s="73">
         <f t="shared" si="3"/>
@@ -9710,9 +9710,9 @@
       </c>
       <c r="B18" s="107"/>
       <c r="C18" s="106"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="75"/>
       <c r="H18" s="73">
         <f t="shared" si="3"/>
@@ -9731,9 +9731,9 @@
       </c>
       <c r="B19" s="97"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="75"/>
       <c r="H19" s="73">
         <f t="shared" si="3"/>
@@ -9752,9 +9752,9 @@
       </c>
       <c r="B20" s="97"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="75"/>
       <c r="H20" s="73">
         <f t="shared" si="3"/>
@@ -9773,9 +9773,9 @@
       </c>
       <c r="B21" s="97"/>
       <c r="C21" s="106"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="75"/>
       <c r="H21" s="73">
         <f t="shared" si="3"/>
@@ -9794,9 +9794,9 @@
       </c>
       <c r="B22" s="97"/>
       <c r="C22" s="106"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="75"/>
       <c r="H22" s="73">
         <f t="shared" si="3"/>
@@ -9815,9 +9815,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="77"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31">
         <f t="shared" si="3"/>
@@ -9836,9 +9836,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="77"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31">
         <f t="shared" si="3"/>
@@ -9857,9 +9857,9 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="77"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31">
         <f t="shared" si="3"/>
@@ -9878,9 +9878,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="77"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="30"/>
       <c r="H26" s="31">
         <f t="shared" si="3"/>
@@ -9899,9 +9899,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="77"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="34"/>
       <c r="H27" s="31">
         <f t="shared" si="3"/>
@@ -9920,9 +9920,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="77"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="30"/>
       <c r="H28" s="31">
         <f t="shared" si="3"/>
@@ -9941,9 +9941,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="30"/>
       <c r="H29" s="31">
         <f t="shared" si="3"/>
@@ -9962,9 +9962,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="34"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
@@ -9983,9 +9983,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="30"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
@@ -10004,9 +10004,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -10020,9 +10020,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
@@ -10036,9 +10036,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
@@ -10052,9 +10052,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="34"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
@@ -10068,9 +10068,9 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="34"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
@@ -10084,9 +10084,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
@@ -10100,9 +10100,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="30"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
@@ -10116,9 +10116,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
@@ -10132,9 +10132,9 @@
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
@@ -10148,9 +10148,9 @@
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
@@ -10164,9 +10164,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
@@ -10180,9 +10180,9 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
@@ -10191,14 +10191,14 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>212000</v>
@@ -10216,10 +10216,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -10252,7 +10252,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="18">
-        <f>SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
+        <f t="shared" ref="I47:I52" si="4">SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
         <v>0</v>
       </c>
     </row>
@@ -10270,7 +10270,7 @@
         <v>61</v>
       </c>
       <c r="I48" s="18">
-        <f>SUMIF($I$13:$I$44,H48,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>212000</v>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="18">
-        <f>SUMIF($I$13:$I$44,H49,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10306,7 +10306,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="18">
-        <f>SUMIF($I$13:$I$44,H50,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="18">
-        <f>SUMIF($I$13:$I$44,H51,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10342,7 +10342,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="18">
-        <f>SUMIF($I$13:$I$44,H52,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10389,21 +10389,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D20:F20"/>
@@ -10420,11 +10410,21 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D19:F19"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -10464,18 +10464,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A10&amp;")"</f>
         <v>경비관리표(3월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -10483,14 +10483,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="151" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -10513,7 +10513,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="151"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="151"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="151"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="151"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="151"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="151"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="151"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -10688,7 +10688,7 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="151"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
@@ -10727,11 +10727,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -10752,11 +10752,11 @@
       <c r="C14" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="75">
         <v>112000</v>
       </c>
@@ -10778,11 +10778,11 @@
       <c r="C15" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="130" t="s">
+      <c r="D15" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="30">
         <v>106000</v>
       </c>
@@ -10800,9 +10800,9 @@
       </c>
       <c r="B16" s="107"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="30"/>
       <c r="H16" s="31">
         <f t="shared" ref="H16:H43" si="3">H15+G16</f>
@@ -10816,9 +10816,9 @@
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="106"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="30"/>
       <c r="H17" s="31">
         <f t="shared" si="3"/>
@@ -10832,9 +10832,9 @@
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="77"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31">
         <f t="shared" si="3"/>
@@ -10848,9 +10848,9 @@
       </c>
       <c r="B19" s="107"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31">
         <f t="shared" si="3"/>
@@ -10864,9 +10864,9 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="29"/>
       <c r="H20" s="31">
         <f t="shared" si="3"/>
@@ -10880,9 +10880,9 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="29"/>
       <c r="H21" s="31">
         <f t="shared" si="3"/>
@@ -10896,9 +10896,9 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="29"/>
       <c r="H22" s="31">
         <f t="shared" si="3"/>
@@ -10912,9 +10912,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="29"/>
       <c r="H23" s="31">
         <f t="shared" si="3"/>
@@ -10928,9 +10928,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="29"/>
       <c r="H24" s="31">
         <f t="shared" si="3"/>
@@ -10944,9 +10944,9 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="29"/>
       <c r="H25" s="31">
         <f t="shared" si="3"/>
@@ -10960,9 +10960,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="29"/>
       <c r="H26" s="31">
         <f t="shared" si="3"/>
@@ -10976,9 +10976,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="29"/>
       <c r="H27" s="31">
         <f t="shared" si="3"/>
@@ -10992,9 +10992,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="29"/>
       <c r="H28" s="31">
         <f t="shared" si="3"/>
@@ -11008,9 +11008,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="29"/>
       <c r="H29" s="31">
         <f t="shared" si="3"/>
@@ -11024,9 +11024,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="29"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
@@ -11040,9 +11040,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="29"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
@@ -11056,9 +11056,9 @@
       </c>
       <c r="B32" s="74"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -11072,9 +11072,9 @@
       </c>
       <c r="B33" s="74"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
@@ -11088,9 +11088,9 @@
       </c>
       <c r="B34" s="74"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
@@ -11104,9 +11104,9 @@
       </c>
       <c r="B35" s="74"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="34"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
@@ -11120,9 +11120,9 @@
       </c>
       <c r="B36" s="74"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="34"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
@@ -11136,9 +11136,9 @@
       </c>
       <c r="B37" s="74"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="34"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
@@ -11152,9 +11152,9 @@
       </c>
       <c r="B38" s="74"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="34"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
@@ -11168,9 +11168,9 @@
       </c>
       <c r="B39" s="74"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="34"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
@@ -11184,9 +11184,9 @@
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
@@ -11200,9 +11200,9 @@
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
@@ -11216,9 +11216,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
@@ -11232,9 +11232,9 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
@@ -11243,14 +11243,14 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>218000</v>
@@ -11268,10 +11268,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -11304,7 +11304,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="18">
-        <f>SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
+        <f t="shared" ref="I47:I52" si="4">SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
         <v>0</v>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
         <v>61</v>
       </c>
       <c r="I48" s="18">
-        <f>SUMIF($I$13:$I$44,H48,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>218000</v>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="18">
-        <f>SUMIF($I$13:$I$44,H49,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11358,7 +11358,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="18">
-        <f>SUMIF($I$13:$I$44,H50,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11376,7 +11376,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="18">
-        <f>SUMIF($I$13:$I$44,H51,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11394,7 +11394,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="18">
-        <f>SUMIF($I$13:$I$44,H52,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11441,6 +11441,32 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D17:F17"/>
@@ -11451,32 +11477,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -11516,18 +11516,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A11&amp;")"</f>
         <v>경비관리표(4월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -11535,14 +11535,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -11565,7 +11565,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -11590,7 +11590,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -11615,7 +11615,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -11715,7 +11715,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -11740,7 +11740,7 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
@@ -11779,11 +11779,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -11804,11 +11804,11 @@
       <c r="C14" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="75">
         <v>241600</v>
       </c>
@@ -11826,9 +11826,9 @@
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="106"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="30"/>
       <c r="H15" s="31">
         <f>H14+G15</f>
@@ -11842,9 +11842,9 @@
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="30"/>
       <c r="H16" s="31">
         <f t="shared" ref="H16:H43" si="3">H15+G16</f>
@@ -11858,9 +11858,9 @@
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="106"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="30"/>
       <c r="H17" s="31">
         <f t="shared" si="3"/>
@@ -11874,9 +11874,9 @@
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="106"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31">
         <f t="shared" si="3"/>
@@ -11890,9 +11890,9 @@
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31">
         <f t="shared" si="3"/>
@@ -11906,9 +11906,9 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="30"/>
       <c r="H20" s="31">
         <f t="shared" si="3"/>
@@ -11922,9 +11922,9 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="106"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="30"/>
       <c r="H21" s="31">
         <f t="shared" si="3"/>
@@ -11938,9 +11938,9 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="106"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31">
         <f t="shared" si="3"/>
@@ -11954,9 +11954,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="106"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
       <c r="G23" s="30"/>
       <c r="H23" s="31">
         <f t="shared" si="3"/>
@@ -11970,9 +11970,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="77"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="30"/>
       <c r="H24" s="31">
         <f t="shared" si="3"/>
@@ -11986,9 +11986,9 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="77"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="30"/>
       <c r="H25" s="31">
         <f t="shared" si="3"/>
@@ -12002,9 +12002,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="77"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="30"/>
       <c r="H26" s="31">
         <f t="shared" si="3"/>
@@ -12018,9 +12018,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="77"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="30"/>
       <c r="H27" s="31">
         <f t="shared" si="3"/>
@@ -12034,9 +12034,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="77"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="30"/>
       <c r="H28" s="31">
         <f t="shared" si="3"/>
@@ -12050,9 +12050,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="30"/>
       <c r="H29" s="31">
         <f t="shared" si="3"/>
@@ -12066,9 +12066,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
@@ -12082,9 +12082,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="30"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
@@ -12098,9 +12098,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -12114,9 +12114,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
@@ -12130,9 +12130,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
@@ -12146,9 +12146,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="30"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
@@ -12162,9 +12162,9 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
@@ -12178,9 +12178,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
@@ -12194,9 +12194,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="30"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
@@ -12210,9 +12210,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
@@ -12226,9 +12226,9 @@
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
@@ -12242,9 +12242,9 @@
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
@@ -12258,9 +12258,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
@@ -12274,9 +12274,9 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
@@ -12285,14 +12285,14 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>241600</v>
@@ -12310,10 +12310,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -12346,7 +12346,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="18">
-        <f>SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
+        <f t="shared" ref="I47:I52" si="4">SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
         <v>0</v>
       </c>
     </row>
@@ -12364,7 +12364,7 @@
         <v>61</v>
       </c>
       <c r="I48" s="18">
-        <f>SUMIF($I$13:$I$44,H48,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12382,7 +12382,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="18">
-        <f>SUMIF($I$13:$I$44,H49,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12400,7 +12400,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="18">
-        <f>SUMIF($I$13:$I$44,H50,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>241600</v>
       </c>
     </row>
@@ -12418,7 +12418,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="18">
-        <f>SUMIF($I$13:$I$44,H51,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12436,7 +12436,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="18">
-        <f>SUMIF($I$13:$I$44,H52,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12483,26 +12483,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:G2"/>
@@ -12519,6 +12499,26 @@
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D41:F41"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -12542,8 +12542,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -12560,18 +12560,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A12&amp;")"</f>
         <v>경비관리표(5월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -12579,14 +12579,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -12609,7 +12609,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -12684,7 +12684,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -12709,7 +12709,7 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
@@ -12734,7 +12734,7 @@
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
@@ -12823,11 +12823,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -12848,11 +12848,11 @@
       <c r="C14" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
       <c r="G14" s="30">
         <v>790000</v>
       </c>
@@ -12874,11 +12874,11 @@
       <c r="C15" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="130" t="s">
+      <c r="D15" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="30">
         <v>440000</v>
       </c>
@@ -12900,11 +12900,11 @@
       <c r="C16" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="30">
         <v>269000</v>
       </c>
@@ -12922,9 +12922,9 @@
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="106"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="30"/>
       <c r="H17" s="31">
         <f t="shared" si="3"/>
@@ -12938,9 +12938,9 @@
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="106"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="75"/>
       <c r="H18" s="73">
         <f t="shared" si="3"/>
@@ -12954,9 +12954,9 @@
       </c>
       <c r="B19" s="97"/>
       <c r="C19" s="106"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="75"/>
       <c r="H19" s="73">
         <f t="shared" si="3"/>
@@ -12970,9 +12970,9 @@
       </c>
       <c r="B20" s="97"/>
       <c r="C20" s="106"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="75"/>
       <c r="H20" s="73">
         <f t="shared" si="3"/>
@@ -12986,9 +12986,9 @@
       </c>
       <c r="B21" s="97"/>
       <c r="C21" s="106"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="75"/>
       <c r="H21" s="73">
         <f t="shared" si="3"/>
@@ -13002,9 +13002,9 @@
       </c>
       <c r="B22" s="97"/>
       <c r="C22" s="106"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="75"/>
       <c r="H22" s="73">
         <f t="shared" si="3"/>
@@ -13018,9 +13018,9 @@
       </c>
       <c r="B23" s="97"/>
       <c r="C23" s="106"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
       <c r="G23" s="75"/>
       <c r="H23" s="73">
         <f t="shared" si="3"/>
@@ -13034,9 +13034,9 @@
       </c>
       <c r="B24" s="97"/>
       <c r="C24" s="106"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
       <c r="G24" s="75"/>
       <c r="H24" s="73">
         <f t="shared" si="3"/>
@@ -13050,9 +13050,9 @@
       </c>
       <c r="B25" s="97"/>
       <c r="C25" s="106"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
       <c r="G25" s="75"/>
       <c r="H25" s="73">
         <f t="shared" si="3"/>
@@ -13066,9 +13066,9 @@
       </c>
       <c r="B26" s="97"/>
       <c r="C26" s="106"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
       <c r="G26" s="105"/>
       <c r="H26" s="73">
         <f t="shared" si="3"/>
@@ -13082,9 +13082,9 @@
       </c>
       <c r="B27" s="97"/>
       <c r="C27" s="106"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
       <c r="G27" s="75"/>
       <c r="H27" s="73">
         <f t="shared" si="3"/>
@@ -13162,9 +13162,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -13178,9 +13178,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
@@ -13194,9 +13194,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
@@ -13210,9 +13210,9 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="34"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
@@ -13226,9 +13226,9 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="34"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
@@ -13242,9 +13242,9 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
@@ -13258,9 +13258,9 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="34"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
@@ -13274,9 +13274,9 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="34"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
@@ -13290,9 +13290,9 @@
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
@@ -13306,9 +13306,9 @@
       </c>
       <c r="B41" s="32"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
@@ -13322,9 +13322,9 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
@@ -13338,9 +13338,9 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
@@ -13349,14 +13349,14 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>1499000</v>
@@ -13374,10 +13374,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -13410,7 +13410,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="18">
-        <f>SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
+        <f t="shared" ref="I47:I52" si="4">SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
         <v>269000</v>
       </c>
     </row>
@@ -13428,7 +13428,7 @@
         <v>61</v>
       </c>
       <c r="I48" s="18">
-        <f>SUMIF($I$13:$I$44,H48,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13446,7 +13446,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="18">
-        <f>SUMIF($I$13:$I$44,H49,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="18">
-        <f>SUMIF($I$13:$I$44,H50,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13482,7 +13482,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="18">
-        <f>SUMIF($I$13:$I$44,H51,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>790000</v>
       </c>
     </row>
@@ -13500,7 +13500,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="18">
-        <f>SUMIF($I$13:$I$44,H52,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>440000</v>
       </c>
     </row>
@@ -13550,24 +13550,6 @@
     <sortCondition ref="B23:B67"/>
   </sortState>
   <mergeCells count="32">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="D32:F32"/>
@@ -13582,6 +13564,24 @@
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -13624,18 +13624,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A13&amp;")"</f>
         <v>경비관리표(6월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -13643,14 +13643,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -13673,7 +13673,7 @@
     </row>
     <row r="4" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -13698,7 +13698,7 @@
     </row>
     <row r="5" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -13723,7 +13723,7 @@
     </row>
     <row r="6" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -13748,7 +13748,7 @@
     </row>
     <row r="7" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -13773,7 +13773,7 @@
     </row>
     <row r="8" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="9" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="10" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -13848,7 +13848,7 @@
     </row>
     <row r="11" spans="1:9" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
@@ -13887,11 +13887,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -13912,11 +13912,11 @@
       <c r="C14" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="75">
         <v>224000</v>
       </c>
@@ -13934,9 +13934,9 @@
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="106"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="30"/>
       <c r="H15" s="31">
         <f>H14+G15</f>
@@ -13950,9 +13950,9 @@
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="77"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
       <c r="G16" s="75"/>
       <c r="H16" s="31">
         <f t="shared" ref="H16:H43" si="3">H15+G16</f>
@@ -13966,9 +13966,9 @@
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="106"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="30"/>
       <c r="H17" s="31">
         <f t="shared" si="3"/>
@@ -13982,9 +13982,9 @@
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="106"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31">
         <f t="shared" si="3"/>
@@ -13998,9 +13998,9 @@
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="77"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="75"/>
       <c r="H19" s="31">
         <f t="shared" si="3"/>
@@ -14014,9 +14014,9 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="77"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="75"/>
       <c r="H20" s="31">
         <f t="shared" si="3"/>
@@ -14030,9 +14030,9 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="77"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="75"/>
       <c r="H21" s="31">
         <f t="shared" si="3"/>
@@ -14046,9 +14046,9 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="77"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
       <c r="G22" s="75"/>
       <c r="H22" s="31">
         <f t="shared" si="3"/>
@@ -14062,9 +14062,9 @@
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="77"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="75"/>
       <c r="H23" s="31">
         <f t="shared" si="3"/>
@@ -14078,9 +14078,9 @@
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="77"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
       <c r="G24" s="75"/>
       <c r="H24" s="31">
         <f t="shared" si="3"/>
@@ -14094,9 +14094,9 @@
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="77"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
       <c r="G25" s="75"/>
       <c r="H25" s="31">
         <f t="shared" si="3"/>
@@ -14110,9 +14110,9 @@
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="77"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
       <c r="G26" s="75"/>
       <c r="H26" s="31">
         <f t="shared" si="3"/>
@@ -14126,9 +14126,9 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="77"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
       <c r="G27" s="75"/>
       <c r="H27" s="31">
         <f t="shared" si="3"/>
@@ -14142,9 +14142,9 @@
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="77"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="129"/>
       <c r="G28" s="75"/>
       <c r="H28" s="31">
         <f t="shared" si="3"/>
@@ -14158,9 +14158,9 @@
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
       <c r="G29" s="75"/>
       <c r="H29" s="31">
         <f t="shared" si="3"/>
@@ -14174,9 +14174,9 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="75"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
@@ -14190,9 +14190,9 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="75"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
@@ -14206,9 +14206,9 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="75"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
@@ -14222,9 +14222,9 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="75"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
@@ -14238,9 +14238,9 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="75"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
@@ -14254,9 +14254,9 @@
       </c>
       <c r="B35" s="74"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="75"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
@@ -14270,9 +14270,9 @@
       </c>
       <c r="B36" s="74"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="75"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
@@ -14286,9 +14286,9 @@
       </c>
       <c r="B37" s="74"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="75"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
@@ -14302,9 +14302,9 @@
       </c>
       <c r="B38" s="74"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="75"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
@@ -14318,9 +14318,9 @@
       </c>
       <c r="B39" s="74"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="75"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
@@ -14334,9 +14334,9 @@
       </c>
       <c r="B40" s="74"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="75"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
@@ -14350,9 +14350,9 @@
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="75"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
@@ -14366,9 +14366,9 @@
       </c>
       <c r="B42" s="74"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="75"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
@@ -14382,9 +14382,9 @@
       </c>
       <c r="B43" s="74"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="75"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
@@ -14393,14 +14393,14 @@
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
         <v>224000</v>
@@ -14418,10 +14418,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
@@ -14454,7 +14454,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="18">
-        <f>SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
+        <f t="shared" ref="I47:I52" si="4">SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
         <v>224000</v>
       </c>
     </row>
@@ -14472,7 +14472,7 @@
         <v>61</v>
       </c>
       <c r="I48" s="18">
-        <f>SUMIF($I$13:$I$44,H48,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14490,7 +14490,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="18">
-        <f>SUMIF($I$13:$I$44,H49,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14508,7 +14508,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="18">
-        <f>SUMIF($I$13:$I$44,H50,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14526,7 +14526,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="18">
-        <f>SUMIF($I$13:$I$44,H51,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14544,7 +14544,7 @@
         <v>50</v>
       </c>
       <c r="I52" s="18">
-        <f>SUMIF($I$13:$I$44,H52,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14591,6 +14591,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="H45:I45"/>
@@ -14607,26 +14627,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -14650,8 +14650,8 @@
   </sheetPr>
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B52"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -14673,18 +14673,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="str">
+      <c r="A1" s="130" t="str">
         <f>"경비관리표("&amp;경비총괄!A14&amp;")"</f>
         <v>경비관리표(7월)</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -14692,14 +14692,14 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="26"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:17" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -14727,7 +14727,7 @@
     </row>
     <row r="4" spans="1:17" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="139"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="86" t="s">
         <v>15</v>
       </c>
@@ -14757,7 +14757,7 @@
     </row>
     <row r="5" spans="1:17" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
-      <c r="B5" s="139"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
@@ -14787,7 +14787,7 @@
     </row>
     <row r="6" spans="1:17" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="139"/>
+      <c r="B6" s="136"/>
       <c r="C6" s="86" t="s">
         <v>18</v>
       </c>
@@ -14817,7 +14817,7 @@
     </row>
     <row r="7" spans="1:17" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
-      <c r="B7" s="139"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="86" t="s">
         <v>7</v>
       </c>
@@ -14849,7 +14849,7 @@
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
-      <c r="B8" s="139"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="86" t="s">
         <v>52</v>
       </c>
@@ -14859,15 +14859,15 @@
       </c>
       <c r="E8" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="F8" s="80">
         <f>'0006'!F8+E8</f>
-        <v>495000</v>
+        <v>550000</v>
       </c>
       <c r="G8" s="89">
         <f t="shared" ref="G8" si="2">D8-E8</f>
-        <v>505000</v>
+        <v>450000</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="37"/>
@@ -14879,7 +14879,7 @@
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="139"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86" t="s">
         <v>45</v>
       </c>
@@ -14909,7 +14909,7 @@
     </row>
     <row r="10" spans="1:17" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="139"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="87" t="s">
         <v>20</v>
       </c>
@@ -14939,7 +14939,7 @@
     </row>
     <row r="11" spans="1:17" s="38" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="140"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="78" t="s">
         <v>19</v>
       </c>
@@ -14949,15 +14949,15 @@
       </c>
       <c r="E11" s="79">
         <f>SUM(E4:E10)</f>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="F11" s="79">
         <f>SUM(F4:F10)</f>
-        <v>2449600</v>
+        <v>2504600</v>
       </c>
       <c r="G11" s="79">
         <f>SUM(G4:G10)</f>
-        <v>14550400</v>
+        <v>14495400</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37"/>
@@ -14987,11 +14987,11 @@
       <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="8" t="s">
         <v>43</v>
       </c>
@@ -15010,17 +15010,27 @@
       <c r="A14" s="103">
         <v>1</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="75"/>
+      <c r="B14" s="107">
+        <v>45120</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="75">
+        <v>55000</v>
+      </c>
       <c r="H14" s="73">
         <f>G14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="14"/>
+        <v>55000</v>
+      </c>
+      <c r="I14" s="98" t="s">
+        <v>50</v>
+      </c>
       <c r="K14" s="109"/>
       <c r="L14" s="115"/>
       <c r="M14" s="115"/>
@@ -15033,13 +15043,13 @@
       </c>
       <c r="B15" s="107"/>
       <c r="C15" s="106"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="75"/>
       <c r="H15" s="73">
         <f>H14+G15</f>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I15" s="14"/>
       <c r="L15" s="114"/>
@@ -15053,13 +15063,13 @@
       </c>
       <c r="B16" s="97"/>
       <c r="C16" s="75"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="75"/>
       <c r="H16" s="73">
         <f t="shared" ref="H16:H43" si="3">H15+G16</f>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I16" s="98"/>
       <c r="K16" s="108"/>
@@ -15074,13 +15084,13 @@
       </c>
       <c r="B17" s="97"/>
       <c r="C17" s="75"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="75"/>
       <c r="H17" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I17" s="98"/>
       <c r="L17" s="114"/>
@@ -15095,13 +15105,13 @@
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="75"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="75"/>
       <c r="H18" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I18" s="98"/>
       <c r="L18" s="114"/>
@@ -15115,13 +15125,13 @@
       </c>
       <c r="B19" s="97"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="75"/>
       <c r="H19" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I19" s="98"/>
       <c r="K19" s="109"/>
@@ -15136,13 +15146,13 @@
       </c>
       <c r="B20" s="97"/>
       <c r="C20" s="75"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="75"/>
       <c r="H20" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I20" s="98"/>
       <c r="L20" s="114"/>
@@ -15156,13 +15166,13 @@
       </c>
       <c r="B21" s="97"/>
       <c r="C21" s="75"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="75"/>
       <c r="H21" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I21" s="98"/>
       <c r="K21" s="108"/>
@@ -15177,13 +15187,13 @@
       </c>
       <c r="B22" s="97"/>
       <c r="C22" s="75"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="75"/>
       <c r="H22" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I22" s="98"/>
       <c r="L22" s="114"/>
@@ -15197,13 +15207,13 @@
       </c>
       <c r="B23" s="97"/>
       <c r="C23" s="75"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
       <c r="G23" s="75"/>
       <c r="H23" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I23" s="98"/>
       <c r="L23" s="114"/>
@@ -15217,13 +15227,13 @@
       </c>
       <c r="B24" s="97"/>
       <c r="C24" s="75"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
       <c r="G24" s="75"/>
       <c r="H24" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I24" s="98"/>
       <c r="L24" s="114"/>
@@ -15237,13 +15247,13 @@
       </c>
       <c r="B25" s="97"/>
       <c r="C25" s="75"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
       <c r="G25" s="75"/>
       <c r="H25" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I25" s="98"/>
       <c r="K25" s="109"/>
@@ -15258,13 +15268,13 @@
       </c>
       <c r="B26" s="97"/>
       <c r="C26" s="75"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
       <c r="G26" s="75"/>
       <c r="H26" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I26" s="98"/>
       <c r="L26" s="114"/>
@@ -15278,13 +15288,13 @@
       </c>
       <c r="B27" s="97"/>
       <c r="C27" s="75"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="129"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
       <c r="G27" s="75"/>
       <c r="H27" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I27" s="98"/>
       <c r="K27" s="108"/>
@@ -15299,13 +15309,13 @@
       </c>
       <c r="B28" s="97"/>
       <c r="C28" s="75"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="129"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146"/>
       <c r="G28" s="75"/>
       <c r="H28" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I28" s="98"/>
       <c r="L28" s="114"/>
@@ -15319,13 +15329,13 @@
       </c>
       <c r="B29" s="97"/>
       <c r="C29" s="75"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
       <c r="G29" s="75"/>
       <c r="H29" s="73">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I29" s="98"/>
       <c r="L29" s="114"/>
@@ -15339,13 +15349,13 @@
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
       <c r="G30" s="30"/>
       <c r="H30" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I30" s="68"/>
       <c r="K30" s="109"/>
@@ -15360,13 +15370,13 @@
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="30"/>
       <c r="H31" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I31" s="68"/>
       <c r="K31" s="95"/>
@@ -15381,13 +15391,13 @@
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="30"/>
       <c r="H32" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I32" s="68"/>
       <c r="K32" s="108"/>
@@ -15402,13 +15412,13 @@
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="30"/>
       <c r="H33" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I33" s="68"/>
       <c r="L33" s="114"/>
@@ -15422,13 +15432,13 @@
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="30"/>
       <c r="H34" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I34" s="68"/>
       <c r="L34" s="114"/>
@@ -15442,13 +15452,13 @@
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="30"/>
       <c r="H35" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I35" s="68"/>
       <c r="L35" s="114"/>
@@ -15462,13 +15472,13 @@
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="132"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="30"/>
       <c r="H36" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I36" s="68"/>
       <c r="L36" s="114"/>
@@ -15482,13 +15492,13 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="132"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="30"/>
       <c r="H37" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I37" s="68"/>
       <c r="L37" s="114"/>
@@ -15502,13 +15512,13 @@
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="132"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="30"/>
       <c r="H38" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I38" s="68"/>
       <c r="L38" s="114"/>
@@ -15522,13 +15532,13 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="30"/>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I39" s="68"/>
       <c r="L39" s="114"/>
@@ -15542,13 +15552,13 @@
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="132"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="30"/>
       <c r="H40" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I40" s="68"/>
       <c r="K40" s="109"/>
@@ -15563,13 +15573,13 @@
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="129"/>
       <c r="G41" s="30"/>
       <c r="H41" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I41" s="68"/>
       <c r="K41" s="95"/>
@@ -15584,13 +15594,13 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
       <c r="G42" s="30"/>
       <c r="H42" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I42" s="68"/>
       <c r="K42" s="108"/>
@@ -15605,13 +15615,13 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
       <c r="G43" s="30"/>
       <c r="H43" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="I43" s="68"/>
       <c r="L43" s="114"/>
@@ -15620,17 +15630,17 @@
       <c r="O43" s="114"/>
     </row>
     <row r="44" spans="1:16" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.25">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="143"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
       <c r="G44" s="50">
         <f>SUM(G14:G43)</f>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="H44" s="50"/>
       <c r="I44" s="9"/>
@@ -15649,10 +15659,10 @@
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="136" t="s">
+      <c r="H45" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="137"/>
+      <c r="I45" s="134"/>
       <c r="L45" s="114"/>
       <c r="M45" s="114"/>
       <c r="N45" s="114"/>
@@ -15695,7 +15705,7 @@
         <v>63</v>
       </c>
       <c r="I47" s="18">
-        <f>SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
+        <f t="shared" ref="I47:I52" si="4">SUMIF($I$13:$I$44,H47,$G$13:$G$44)</f>
         <v>0</v>
       </c>
       <c r="L47" s="111"/>
@@ -15717,7 +15727,7 @@
         <v>61</v>
       </c>
       <c r="I48" s="18">
-        <f>SUMIF($I$13:$I$44,H48,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K48" s="108"/>
@@ -15740,7 +15750,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="18">
-        <f>SUMIF($I$13:$I$44,H49,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L49" s="114"/>
@@ -15762,7 +15772,7 @@
         <v>67</v>
       </c>
       <c r="I50" s="18">
-        <f>SUMIF($I$13:$I$44,H50,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L50" s="114"/>
@@ -15784,7 +15794,7 @@
         <v>55</v>
       </c>
       <c r="I51" s="18">
-        <f>SUMIF($I$13:$I$44,H51,$G$13:$G$44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L51" s="114"/>
@@ -15806,8 +15816,8 @@
         <v>50</v>
       </c>
       <c r="I52" s="18">
-        <f>SUMIF($I$13:$I$44,H52,$G$13:$G$44)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>55000</v>
       </c>
       <c r="K52" s="109"/>
       <c r="L52" s="115"/>
@@ -15827,7 +15837,7 @@
       </c>
       <c r="I53" s="19">
         <f>SUM(I47:I52)</f>
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="L53" s="111"/>
       <c r="M53" s="111"/>
@@ -15881,26 +15891,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="D30:F30"/>
@@ -15917,6 +15907,26 @@
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
